--- a/examples/tscodes_xlsx_fred/bbp_code.xlsx
+++ b/examples/tscodes_xlsx_fred/bbp_code.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topic" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Key</t>
   </si>
   <si>
-    <t xml:space="preserve">sa4</t>
+    <t xml:space="preserve">Code</t>
   </si>
   <si>
     <t xml:space="preserve">Totaal_1</t>
@@ -993,14 +993,14 @@
   </sheetPr>
   <dimension ref="A1:B211"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.4132653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.8724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2268,13 +2268,13 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2341,7 +2341,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2367,7 +2367,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
